--- a/biology/Zoologie/Chien_de_lecture/Chien_de_lecture.xlsx
+++ b/biology/Zoologie/Chien_de_lecture/Chien_de_lecture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien de lecture, ou chien d'assistance à l'apprentissage de la lecture, est un type de chien de thérapie principalement destiné aux enfants faisant l'apprentissage de la lecture, ainsi encouragés à lire à voix haute. Il intervient notamment lors de séances de lecture en bibliothèque.
 L'utilisation de chiens de lecture est surtout répandue aux États-Unis et dans certains pays d'Europe comme le Royaume-Uni.
@@ -512,11 +524,13 @@
           <t>Principe et effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enfant est encouragé à lire à voix haute en présence du chien, lors d'une séance en bibliothèque, en institut spécialisé ou à la maison[1].
-Des associations proposent des séances de lecture en bibliothèque avec un chien ayant suivi une formation de chien de thérapie dans plusieurs États des États-Unis[2], mais aussi dans d'autres pays comme le Canada[3] ou le Royaume-Uni[4]. En France, l'association « Lire avec le chien » organise des séances identiques[5].
-Contrairement à un adulte, le chien offre l'avantage de ne pas interrompre l'enfant et de ne pas juger sa performance, ce qui lui permet de prendre confiance en lui. L'animal a un effet apaisant qui diminue le niveau de stress de l'enfant qui lit[4], et peut également servir de médiateur pour faire mieux accepter à l'enfant les consignes de lecture[3]. Des études américaines affirment que l'aisance en lecture des enfants lisant régulièrement à un chien augmente de 12%[2] et qu'ils prennent davantage de plaisir à lire[6]. La méthode est également efficace avec des enfants atteints de handicap comme le syndrome de Down[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enfant est encouragé à lire à voix haute en présence du chien, lors d'une séance en bibliothèque, en institut spécialisé ou à la maison.
+Des associations proposent des séances de lecture en bibliothèque avec un chien ayant suivi une formation de chien de thérapie dans plusieurs États des États-Unis, mais aussi dans d'autres pays comme le Canada ou le Royaume-Uni. En France, l'association « Lire avec le chien » organise des séances identiques.
+Contrairement à un adulte, le chien offre l'avantage de ne pas interrompre l'enfant et de ne pas juger sa performance, ce qui lui permet de prendre confiance en lui. L'animal a un effet apaisant qui diminue le niveau de stress de l'enfant qui lit, et peut également servir de médiateur pour faire mieux accepter à l'enfant les consignes de lecture. Des études américaines affirment que l'aisance en lecture des enfants lisant régulièrement à un chien augmente de 12% et qu'ils prennent davantage de plaisir à lire. La méthode est également efficace avec des enfants atteints de handicap comme le syndrome de Down.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'assistance à la lecture peut aussi être assurée par d'autres animaux comme les chats[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assistance à la lecture peut aussi être assurée par d'autres animaux comme les chats.
 </t>
         </is>
       </c>
